--- a/2024学年度第一学期期末八年级自适应练习(2025.1)成绩.xlsx
+++ b/2024学年度第一学期期末八年级自适应练习(2025.1)成绩.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32843DF-1583-44D7-8AE7-0D5AE08B3A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD93756-91B1-42E9-94EF-D2E4E08FD99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{EC227B89-8A2C-49C9-A14C-DADCF1E0C6AB}"/>
+    <workbookView xWindow="3910" yWindow="3660" windowWidth="19200" windowHeight="9970" xr2:uid="{EC227B89-8A2C-49C9-A14C-DADCF1E0C6AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -605,7 +605,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -680,7 +680,7 @@
         <v>27</v>
       </c>
       <c r="J2">
-        <f>SUM(C2:I2)</f>
+        <f t="shared" ref="J2:J30" si="0">SUM(C2:I2)</f>
         <v>515.5</v>
       </c>
     </row>
@@ -713,7 +713,7 @@
         <v>27</v>
       </c>
       <c r="J3">
-        <f>SUM(C3:I3)</f>
+        <f t="shared" si="0"/>
         <v>497</v>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="J4">
-        <f>SUM(C4:I4)</f>
+        <f t="shared" si="0"/>
         <v>496</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -786,7 +786,7 @@
         <v>28</v>
       </c>
       <c r="J5">
-        <f>SUM(C5:I5)</f>
+        <f t="shared" si="0"/>
         <v>491</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -826,7 +826,7 @@
         <v>26</v>
       </c>
       <c r="J6">
-        <f>SUM(C6:I6)</f>
+        <f t="shared" si="0"/>
         <v>487</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -866,7 +866,7 @@
         <v>26</v>
       </c>
       <c r="J7">
-        <f>SUM(C7:I7)</f>
+        <f t="shared" si="0"/>
         <v>483</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -906,7 +906,7 @@
         <v>30</v>
       </c>
       <c r="J8">
-        <f>SUM(C8:I8)</f>
+        <f t="shared" si="0"/>
         <v>481.5</v>
       </c>
     </row>
@@ -939,7 +939,7 @@
         <v>27</v>
       </c>
       <c r="J9">
-        <f>SUM(C9:I9)</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
     </row>
@@ -972,7 +972,7 @@
         <v>28</v>
       </c>
       <c r="J10">
-        <f>SUM(C10:I10)</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
         <v>29</v>
       </c>
       <c r="J11">
-        <f>SUM(C11:I11)</f>
+        <f t="shared" si="0"/>
         <v>470.5</v>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
         <v>29</v>
       </c>
       <c r="J12">
-        <f>SUM(C12:I12)</f>
+        <f t="shared" si="0"/>
         <v>470.5</v>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
         <v>29</v>
       </c>
       <c r="J13">
-        <f>SUM(C13:I13)</f>
+        <f t="shared" si="0"/>
         <v>469</v>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>24</v>
       </c>
       <c r="J14">
-        <f>SUM(C14:I14)</f>
+        <f t="shared" si="0"/>
         <v>463</v>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
         <v>20</v>
       </c>
       <c r="J15">
-        <f>SUM(C15:I15)</f>
+        <f t="shared" si="0"/>
         <v>455.5</v>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
         <v>25</v>
       </c>
       <c r="J16">
-        <f>SUM(C16:I16)</f>
+        <f t="shared" si="0"/>
         <v>452</v>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
         <v>27</v>
       </c>
       <c r="J17">
-        <f>SUM(C17:I17)</f>
+        <f t="shared" si="0"/>
         <v>451</v>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
         <v>27</v>
       </c>
       <c r="J18">
-        <f>SUM(C18:I18)</f>
+        <f t="shared" si="0"/>
         <v>451</v>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
         <v>20</v>
       </c>
       <c r="J19">
-        <f>SUM(C19:I19)</f>
+        <f t="shared" si="0"/>
         <v>449</v>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
         <v>26</v>
       </c>
       <c r="J20">
-        <f>SUM(C20:I20)</f>
+        <f t="shared" si="0"/>
         <v>442.5</v>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
         <v>24</v>
       </c>
       <c r="J21">
-        <f>SUM(C21:I21)</f>
+        <f t="shared" si="0"/>
         <v>438.5</v>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
         <v>21</v>
       </c>
       <c r="J22">
-        <f>SUM(C22:I22)</f>
+        <f t="shared" si="0"/>
         <v>429.5</v>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
         <v>26</v>
       </c>
       <c r="J23">
-        <f>SUM(C23:I23)</f>
+        <f t="shared" si="0"/>
         <v>416.5</v>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
         <v>27</v>
       </c>
       <c r="J24">
-        <f>SUM(C24:I24)</f>
+        <f t="shared" si="0"/>
         <v>399</v>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
         <v>22</v>
       </c>
       <c r="J25">
-        <f>SUM(C25:I25)</f>
+        <f t="shared" si="0"/>
         <v>394</v>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
         <v>26</v>
       </c>
       <c r="J26">
-        <f>SUM(C26:I26)</f>
+        <f t="shared" si="0"/>
         <v>391</v>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
         <v>24</v>
       </c>
       <c r="J27">
-        <f>SUM(C27:I27)</f>
+        <f t="shared" si="0"/>
         <v>375</v>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
         <v>21</v>
       </c>
       <c r="J28">
-        <f>SUM(C28:I28)</f>
+        <f t="shared" si="0"/>
         <v>347</v>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
         <v>16</v>
       </c>
       <c r="J29">
-        <f>SUM(C29:I29)</f>
+        <f t="shared" si="0"/>
         <v>249.5</v>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
         <v>15</v>
       </c>
       <c r="J30">
-        <f>SUM(C30:I30)</f>
+        <f t="shared" si="0"/>
         <v>248</v>
       </c>
     </row>

--- a/2024学年度第一学期期末八年级自适应练习(2025.1)成绩.xlsx
+++ b/2024学年度第一学期期末八年级自适应练习(2025.1)成绩.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\Michaelshenmo.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD93756-91B1-42E9-94EF-D2E4E08FD99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BCF4DA-E4B4-4270-AC52-839E3D357611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3910" yWindow="3660" windowWidth="19200" windowHeight="9970" xr2:uid="{EC227B89-8A2C-49C9-A14C-DADCF1E0C6AB}"/>
   </bookViews>
@@ -749,13 +749,6 @@
         <f t="shared" si="0"/>
         <v>496</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -789,13 +782,6 @@
         <f t="shared" si="0"/>
         <v>491</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -830,7 +816,7 @@
         <v>487</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -870,7 +856,7 @@
         <v>483</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -909,6 +895,13 @@
         <f t="shared" si="0"/>
         <v>481.5</v>
       </c>
+      <c r="L8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -942,6 +935,13 @@
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
+      <c r="L9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1648,12 +1648,13 @@
     <sortCondition descending="1" ref="I2:I30"/>
   </sortState>
   <mergeCells count="4">
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="L9:P9"/>
     <mergeCell ref="L6:P6"/>
     <mergeCell ref="L7:P7"/>
+    <mergeCell ref="L8:P8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>